--- a/設計/検討資料/クラス構成検討.xlsx
+++ b/設計/検討資料/クラス構成検討.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研修・インターン\受講側\7年目(2024年)\VendingMachine2024\設計\検討資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DFFBC1-5DFF-422B-ACBD-DD59FADDA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863EB4E-D77F-4210-9022-A2F2A0DDD54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C3B5E5B6-9BD8-4FA0-8B7D-05DC996D139E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C3B5E5B6-9BD8-4FA0-8B7D-05DC996D139E}"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクト指向" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="260">
   <si>
     <t>設計手順</t>
     <rPh sb="0" eb="2">
@@ -3027,6 +3027,27 @@
     <t>コレをフォーマットとして扱う</t>
     <rPh sb="12" eb="13">
       <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト関連</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ関連</t>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4893,7 +4914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD7B873-4645-4679-BCEC-BBFF0CD79360}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0"/>
+    <sheetView topLeftCell="A89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -5139,7 +5160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59D21E3-108B-42DD-98B3-D6110E5EB106}">
   <dimension ref="A1:S198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -7068,9 +7089,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -7567,48 +7588,67 @@
         <v>4</v>
       </c>
     </row>
+    <row r="76" spans="1:8">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="C77" s="2"/>
+      <c r="D77" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>2</v>
+      <c r="E78" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
+      <c r="E79" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7904,15 +7944,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003F9377C169EDD44B94F6B96D46D04EFC" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b374e7d04d2b14541ac6fab941313c77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0c0f32b2-8202-4a1a-baca-d1da80aedfb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c3955abbb4001be23eedcbe2834c63e" ns2:_="">
     <xsd:import namespace="0c0f32b2-8202-4a1a-baca-d1da80aedfb0"/>
@@ -8082,6 +8113,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8089,14 +8129,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261759DA-D839-4CDF-9861-4F1B00EEA80E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F30F1F66-6C31-4D45-9F3A-06D3249D67B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8110,6 +8142,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261759DA-D839-4CDF-9861-4F1B00EEA80E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
